--- a/Brighway/Results/Lobster - APOS_recipe.xlsx
+++ b/Brighway/Results/Lobster - APOS_recipe.xlsx
@@ -79,193 +79,193 @@
     <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: natural resources', 'natural resources')</t>
   </si>
   <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0007080231224671262], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.2469163995006814e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.426206879223645e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004376214642686442], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 4.885402916157645e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.889631921981318e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.01866845726308992], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.000218151917533937], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.002301881235048907]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0007080231224671262], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 3.478500861170743e-05], ["'remanufacturing - APOS' (unit, GLO, None)", 0.001042198467854989], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.7131034396118224e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002188107321343215], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 5.173152684985191e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.444815960990659e-06], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.003706692163472518], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0001090759587669685], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.001150940617524454]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00011267472877724954], ["'dishwasher - APOS' (unit, GLO, None)", 0.00011224066524701832], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.1004094245886115e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.1110667241266456e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.794728503671712e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 3.53415386626045e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.260823403167369e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.6461124616696426e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 6.083207052314138e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0008408427683130576], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.864624402830913e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.5803231639649226], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.009120545536412762], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.04527978045819679], ["'mixed heating grid' (megajoule, GLO, None)", -0.470864170576641], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.4549980723492238], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0017093836165403959], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 2.141245235342658], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.09053732685803036], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.1697364715358333]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.5803231639649226], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.025443426266340344], ["'remanufacturing - APOS' (unit, GLO, None)", 0.862517849348209], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.022639890229098396], ["'mixed heating grid' (megajoule, GLO, None)", -0.23543208528831988], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.4976643340730031], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008546918082701979], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 1.094888672824893], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.04526866342901518], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.08486823576791667]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.07846765499462807], ["'dishwasher - APOS' (unit, GLO, None)", 0.08170251317306347], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.003730684465288711], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.001896909425636453], ["'mixed heating grid' (megajoule, GLO, None)", -0.01931060099403325], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.019012077468784503], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001515967266568427], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.01689266931889745], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.004532851705376202], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.01409093379981137], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.004107489363363929]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.03230730195527312], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00022606768106907453], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0018946421211304162], ["'mixed heating grid' (megajoule, GLO, None)", -0.006736044014858922], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.03397457678588549], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687907130229064e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.373662056739142], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0021190769951425934], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.01684144138356203]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.03230730195527312], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.0006306570537521222], ["'remanufacturing - APOS' (unit, GLO, None)", 0.13348716899005464], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0009473210605652081], ["'mixed heating grid' (megajoule, GLO, None)", -0.0033680220074294525], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.03426513173487462], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.343953565114532e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.2123704339336062], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0010595384975712967], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.008420720691781014]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0036127782740698884], ["'dishwasher - APOS' (unit, GLO, None)", 0.0037432189053230908], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 9.247113371684949e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.937239229987322e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002762517651107077], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0008868697480811372], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001094346589396551], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0004302867216853906], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.004762136382314315], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.005546869234190737], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001987619065972134]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04265416240582324], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004016454162716963], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0024291567375589545], ["'mixed heating grid' (megajoule, GLO, None)", -0.00881237095698274], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.04661538845232036], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867433381193686e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.764906261533137], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0028220894079152093], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02314080500842337]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04265416240582324], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.0011204631889036093], ["'remanufacturing - APOS' (unit, GLO, None)", 0.1749751897148625], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0012145783687794772], ["'mixed heating grid' (megajoule, GLO, None)", -0.004406185478491358], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.047344315375773285], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.433716690596843e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.2798654130670928], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0014110447039576046], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.01157040250421168]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.004653208490198113], ["'dishwasher - APOS' (unit, GLO, None)", 0.004811524746447013], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00016428976852941426], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00010176485542101897], ["'mixed heating grid' (megajoule, GLO, None)", -0.00036140396741867246], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.001277260904519082], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001668084272049219], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.000576167923364672], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.006091401731153695], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.007733463064149966], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.002554561574475857]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.5739586450873381], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.17452026779792967], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.06168038484635542], ["'mixed heating grid' (megajoule, GLO, None)", -0.6538838384527329], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.9248489817850808], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0022289119925686476], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 104.0382770643804], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.19952391777065243], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.338663258593473]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.5739586450873381], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.4868561366740439], ["'remanufacturing - APOS' (unit, GLO, None)", 1.1630698036050524], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.03084019242317771], ["'mixed heating grid' (megajoule, GLO, None)", -0.3269419192263656], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 1.0641816420431713], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0011144559962843238], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 2.441453384602094], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.09976195888532621], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 2.169331629296737]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.16230179973352646], ["'dishwasher - APOS' (unit, GLO, None)", 0.16329599455516472], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.07138608643007124], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0025839812430176017], ["'mixed heating grid' (megajoule, GLO, None)", -0.02681641689862317], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.04878457272489534], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.1087918089915119], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.038050665957482216], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.411997550290182], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.738454981735158], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.1695761285090606]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.1168546687061543], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0028514051991697723], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.011170072713441418], ["'mixed heating grid' (megajoule, GLO, None)", -0.036662006991770364], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.001694132829979917], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301597241005268], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.5298933884172465], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.04027069922776974], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.06836056272118404]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.1168546687061543], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.007954515181266542], ["'remanufacturing - APOS' (unit, GLO, None)", 0.10636448886910164], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.005585036356720709], ["'mixed heating grid' (megajoule, GLO, None)", -0.018331003495885134], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.0017848727756290795], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.150798620502634e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.2631255212415191], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.02013534961388487], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.03418028136059202]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.010845975972005059], ["'dishwasher - APOS' (unit, GLO, None)", 0.011449545603397494], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0011663439471154798], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00046794874005039264], ["'mixed heating grid' (megajoule, GLO, None)", -0.0015035448286318516], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.00017801194069552866], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0003921538726738602], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.009733702354597371], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.001140849934304267], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.00368278091818217], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0009397842553085969]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0006891508477608853], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.466690299442693e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.843903665816868e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.9670383424578984e-05], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 7.432987197984137e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.30098917226177e-07], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.00248280444050708], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.048436864090848e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.928300334945717e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0006891508477608853], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 1.8040012773896645e-06], ["'remanufacturing - APOS' (unit, GLO, None)", 0.00019497447198044935], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -9.21951832908434e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9835191712289438e-05], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 7.561829826416965e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.650494586130885e-07], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.000762038885620056], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 1.024218432045424e-05], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 2.464150167472859e-05]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 3.9451032861713715e-05], ["'dishwasher - APOS' (unit, GLO, None)", 3.6933251108823907e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.645146712512641e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.724680217658717e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.6269212937867101e-06], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.2310492439118072e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.743599771224872e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.1050748548527194e-06], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 8.239206501878196e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 9.910056629805164e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.370918632118397e-06]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 6.294820159876717e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 2.546012409108146e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.554602652866069e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.308007237750558e-06], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 2.0605960657396015e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762570652132e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.0001024626752407366], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 5.8200245827728e-06], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 9.421560883680118e-06]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 6.294820159876717e-05], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 7.102566265343861e-07], ["'remanufacturing - APOS' (unit, GLO, None)", 0.00031668534034451584], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.773013264330345e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.1540036188752733e-06], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 2.097337586352575e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.104881285326066e-06], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 4.665799443030853e-05], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.9100122913864e-06], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 4.710780441840059e-06]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 2.5640092127428684e-05], ["'dishwasher - APOS' (unit, GLO, None)", 9.31944672021049e-06], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.0414255271431809e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -6.512709194921124e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.7667559786027033e-07], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.0086186605733887e-07], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.576292573449543e-07], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 5.868571006862888e-07], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 3.659876294648502e-07], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.873306013396999e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 4.08211666406598e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04171249741283028], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004686719151932565], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0029446653595514936], ["'mixed heating grid' (megajoule, GLO, None)", -0.005842415882739042], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0056750043711692386], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7790061215496216e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.2207235957621144], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0031896854307980737], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02807747836120623]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04171249741283028], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.0013074458431796868], ["'remanufacturing - APOS' (unit, GLO, None)", 0.04597126916720194], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0014723326797757468], ["'mixed heating grid' (megajoule, GLO, None)", -0.002921207941369513], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.0058276316739488635], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.8895030607748108e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.0539988279977127], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0015948427153990368], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.01403873918060312]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.003704818228362698], ["'dishwasher - APOS' (unit, GLO, None)", 0.0037208607394773126], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0001917064090462605], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00012336109891334992], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002396031998242957], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0005332967920921079], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0006345842404256435], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.000679213761732122], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0007600315844801862], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.009664756277188827], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001381290014104074]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.8946551144264365], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0071217158359996625], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.03787001053822728], ["'mixed heating grid' (megajoule, GLO, None)", -0.16181167047419423], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.5114335047724962], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0017273670722487591], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 20.6725996609325], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.05595965190947118], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.3179891319056599]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.8946551144264365], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.01986732603648933], ["'remanufacturing - APOS' (unit, GLO, None)", 2.7627106410118967], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.01893500526911364], ["'mixed heating grid' (megajoule, GLO, None)", -0.0809058352370969], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.49803392394959856], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008636835361243796], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 3.602590931560361], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.02797982595473559], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.1589945659528299]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.08300975721453435], ["'dishwasher - APOS' (unit, GLO, None)", 0.07814518332535388], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0029130795443640155], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0015864913480584466], ["'mixed heating grid' (megajoule, GLO, None)", -0.006636055151273315], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.01154657475770361], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.02032961031873017], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.01017330732372069], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.07069584110948683], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.09978981512830512], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.02960114854147078]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.1119787732427364], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0001470920067738895], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.01023510522171726], ["'mixed heating grid' (megajoule, GLO, None)", -0.01076184936327412], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00043888659639548637], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393756329858662e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.2299696978730615], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.005311756435412458], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.009525746229796041]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.1119787732427364], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.00041033999716276926], ["'remanufacturing - APOS' (unit, GLO, None)", 0.037636909275108904], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00511755261085863], ["'mixed heating grid' (megajoule, GLO, None)", -0.005380924681637046], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.00045725783806846096], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.196878164929331e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.1216259130743292], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.002655878217706229], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.004762873114898021]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.011894460130149732], ["'dishwasher - APOS' (unit, GLO, None)", 0.012604823642833865], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.016678086290483e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00042878007293742804], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004413539869843451], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.193415937732669e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001377478399011191], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0010380120175177562], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.001718645325951827], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.001680641094072538], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.000301598191164297]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.01708731518972696], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0003449109812231338], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0008494382062112871], ["'mixed heating grid' (megajoule, GLO, None)", -0.08341675634696828], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00017686252429299987], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5569936688031157e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.07342262668526897], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.014954200603440153], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.00302448316665747]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.01708731518972696], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.0009621921092336098], ["'remanufacturing - APOS' (unit, GLO, None)", 0.01939177213942737], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00042471910310564354], ["'mixed heating grid' (megajoule, GLO, None)", -0.04170837817348403], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.00017959608138959644], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.2784968344015579e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.02389611485733169], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.007477100301720076], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.001512241583328735]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.008491561210280218], ["'dishwasher - APOS' (unit, GLO, None)", 0.009128595747476891], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00014108301246010005], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.558558198720736e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0034210029105848174], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.8214500399512546e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 6.454387985221167e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0004774852416650937], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0002490871664461206], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0004378711241432917], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0001433028186460568]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.001913526762202326], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00010199918275560397], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0002526926545537545], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007541863550701196], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00047753226744262124], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.338634147849931e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.06992668827404933], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0057917947040889975], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0089417879010331]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.001913526762202326], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.00028454533565909154], ["'remanufacturing - APOS' (unit, GLO, None)", 0.006019865274569055], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00012634632727687726], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003770931775350588], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.0004996327490318153], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.1693170739249654e-06], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.0130383459541633], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0028958973520444987], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.00447089395051655]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00048173811065240884], ["'dishwasher - APOS' (unit, GLO, None)", 0.0003891299334322709], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 4.172193045462743e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.0586073372300137e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.092992138277988e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.487679735591952e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0002691429315149763], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00010777115624609226], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0002379731434731634], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.003236543319221325], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002143244002312219]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 3.425130445392184e-07], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 4.1309990087011025e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.026113058869568e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.231149068084592e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 6.36756048880945e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541955067056593e-10], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 9.308096938864206e-07], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.270474294371338e-08], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.265723364581013e-08]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 3.425130445392184e-07], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 1.1524175636314742e-08], ["'remanufacturing - APOS' (unit, GLO, None)", 2.660468191125888e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.013056529434784e-08], ["'mixed heating grid' (megajoule, GLO, None)", -6.155745340422944e-08], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 6.377579502670969e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7709775335282966e-10], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 4.100040847200682e-07], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 1.135237147185669e-08], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 4.132861682290506e-08]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 5.13200198541293e-08], ["'dishwasher - APOS' (unit, GLO, None)", 4.953638673814594e-08], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.689751316558396e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.488011469761984e-10], ["'mixed heating grid' (megajoule, GLO, None)", -5.049062957761782e-09], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.1891058817376934e-09], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.932699681890049e-09], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.0403629965282962e-09], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.598949792746332e-09], ["'scalpel raw materials - APOS' (unit, GLO, None)", 8.59385745680358e-09], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.291931835243747e-09]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0002461574530044707], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.510637697123551e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.7486671273289508e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00018665701844782626], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 1.916808200279946e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4879441085090449e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.007734785274395214], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 9.911420050097766e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.000774038844696511]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0002461574530044707], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 1.816261205300291e-05], ["'remanufacturing - APOS' (unit, GLO, None)", 0.00040884646351753255], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.3743335636644754e-05], ["'mixed heating grid' (megajoule, GLO, None)", -9.332850922391289e-05], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 2.0201483857151633e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.439720542545224e-07], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.00218039025522907], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 4.955710025048883e-05], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.0003870194223482555]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 3.905293070083725e-05], ["'dishwasher - APOS' (unit, GLO, None)", 3.857819297300278e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.6631230356572677e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.1515012946189093e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.654987215458964e-06], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.6469247841256467e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.702644774363349e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 2.072512561315682e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.050135129881131e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0002662046026698715], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.160487730290169e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0005349644749719145], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4408455128424682e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -6.163349222029371e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004638683380675079], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.14806903095807e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.696902510372038e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.006500638077575159], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00018987034810905498], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004064415379704235]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0005349644749719145], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 4.0195015126745875e-05], ["'remanufacturing - APOS' (unit, GLO, None)", 0.000702173731331126], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.0816746110146855e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00023193416903375332], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 9.792133739790485e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.48451255186019e-07], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.002668901662430136], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 9.493517405452749e-05], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.0002032207689852117]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.528971290395632e-05], ["'dishwasher - APOS' (unit, GLO, None)", 8.789922982717447e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.893660582233701e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.5820167665234757e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9023695048228293e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 4.735257410609053e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 7.066756009052379e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.0092905370072155e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.404657497752458e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.367528238464521e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.043168354168281e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0005502510137181141], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.6300400748985364e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -6.335506973642869e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00048028274747143263], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.241586431669576e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497879343031775e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.00664993425956566], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0002053207626659586], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004353569215360647]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0005502510137181141], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 4.547294271335755e-05], ["'remanufacturing - APOS' (unit, GLO, None)", 0.0007398091878108615], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.1677534868214344e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00024014137373571566], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 9.889678166677357e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.748939671515887e-07], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.002726784485332678], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0001026603813329793], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.0002176784607680324]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.738330949188065e-05], ["'dishwasher - APOS' (unit, GLO, None)", 9.003224014046775e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.667545445547793e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.6541389496320084e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9696866060929727e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 4.795513950872759e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 7.275640228222473e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.372463272837626e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.446060456717309e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.567946930249242e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.093469054767085e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.003027599316102418], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4729126842013713e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00024384501904311146], ["'mixed heating grid' (megajoule, GLO, None)", -0.000864968531582597], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00033819140488702327], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521961605174365e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.01797207593782729], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.001355875842198566], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.004321421026682468]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.003027599316102418], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 4.1089587429313376e-05], ["'remanufacturing - APOS' (unit, GLO, None)", 0.00732126996040937], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00012192250952155573], ["'mixed heating grid' (megajoule, GLO, None)", -0.00043248426579129735], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.0003544522815257718], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.7609808025871827e-06], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.007912144741648499], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.000677937921099283], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.002160710513341234]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0007806651709747298], ["'dishwasher - APOS' (unit, GLO, None)", 0.0007847780693227072], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.024828720758739e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.0215418677756526e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.547320698733792e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.2526004123924493e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 6.301241540122756e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0002473631330352028], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 5.699170754192965e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0009870058369205444], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.071787561422413e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 2.492803110556199e-09], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 3.597297933998261e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.7288196470726196e-10], ["'mixed heating grid' (megajoule, GLO, None)", -2.252548158490381e-09], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 1.3418629395222499e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.295387195175217e-12], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.545105739985617e-08], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 4.76692483012295e-10], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 1.143078486295577e-09]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 2.492803110556199e-09], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 1.0035319075091446e-10], ["'remanufacturing - APOS' (unit, GLO, None)", 3.158892011689949e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.644098235363098e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.1262740792451876e-09], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 1.4647618374835405e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.1476935975876085e-12], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 5.130679510050549e-09], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.383462415061475e-10], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 5.715392431477886e-10]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 3.6150160764678286e-10], ["'dishwasher - APOS' (unit, GLO, None)", 3.7486078082173564e-10], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.4714452623259322e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.242557827295916e-12], ["'mixed heating grid' (megajoule, GLO, None)", -9.237920705494001e-11], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.689623169600152e-11], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.025299959279921e-11], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 7.058378432633781e-11], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 4.382512850062484e-11], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.599393638783163e-10], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.609744702468704e-11]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.044026572023967e-06], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.5785129430796116e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.839196249382119e-08], ["'mixed heating grid' (megajoule, GLO, None)", -6.130639570656273e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 5.706716603722206e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.056701332610554e-09], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.234043540896061e-05], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 1.728894955783713e-07], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.193194802088462e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.044026572023967e-06], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 4.4035499340434255e-08], ["'remanufacturing - APOS' (unit, GLO, None)", 1.8576983035139196e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.9195981246910593e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.0653197853281285e-07], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 6.08406061589365e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.528350666305277e-09], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 3.408671593619507e-06], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 8.644474778918565e-08], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 4.096597401044231e-07]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 1.3052470789285598e-07], ["'dishwasher - APOS' (unit, GLO, None)", 1.3218800145061536e-07], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.456777932299508e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.2840806877576143e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.5142353567100567e-08], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.313866398889581e-08], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.898883331432844e-08], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.386899777636063e-08], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 3.58767096172388e-08], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.372862535186422e-07], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.251743611892212e-08]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.01540386208178333], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.001231658058094382], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0019347367878265354], ["'mixed heating grid' (megajoule, GLO, None)", -0.011199608937098326], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0005927597990341146], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6844757544177976e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.1259441550732165], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.016226349633014694], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0262426517770528]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.01540386208178333], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.0034359349290807714], ["'remanufacturing - APOS' (unit, GLO, None)", 0.03557632750017069], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0009673683939132677], ["'mixed heating grid' (megajoule, GLO, None)", -0.005599804468549148], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.0006235294474805006], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.8422378772088988e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.05398129540756439], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.008113174816507347], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.0131213258885264]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0021621909321833466], ["'dishwasher - APOS' (unit, GLO, None)", 0.0022508013436134794], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0005037996428542169], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.105208134438695e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00045930693602925734], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.938743843268378e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001718795484363119], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.003652386512654648], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0003206258918285451], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.00169974622022297], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002888118285970352]]</t>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0007291589618496478], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.2469163995006814e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.426206879223645e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004376214642686442], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 4.901127965759812e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.889631921981318e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.01866845726308992], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.000218151917533937], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.002301881235048907]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0007291589618496478], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 3.478500861170743e-05], ["'remanufacturing - APOS' (unit, GLO, None)", 0.001042198467854989], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.7131034396118224e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002188107321343215], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 5.189630632265095e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.444815960990659e-06], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.003706692163472518], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0001090759587669685], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.001150940617524454]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00011267472877724954], ["'dishwasher - APOS' (unit, GLO, None)", 0.00011224066524701832], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.1004094245886115e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.1110667241266456e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.794728503671712e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 3.534269162624737e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.260823403167369e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.6461124616696426e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 6.083207052314138e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0008408427683130576], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.864624402830913e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0007291589618496478]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.4021355177913509], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.009120545536412762], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.04527978045819679], ["'mixed heating grid' (megajoule, GLO, None)", -0.470864170576641], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.45526181809020916], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0017093836165403959], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 2.141245235342658], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.09053732685803036], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.1697364715358333]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.4021355177913509], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.025443426266340344], ["'remanufacturing - APOS' (unit, GLO, None)", 0.862517849348209], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.022639890229098396], ["'mixed heating grid' (megajoule, GLO, None)", -0.23543208528831988], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.4979407077309331], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008546918082701979], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 1.094888672824893], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.04526866342901518], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.08486823576791667]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.07846765499462807], ["'dishwasher - APOS' (unit, GLO, None)", 0.08170251317306347], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.003730684465288711], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.001896909425636453], ["'mixed heating grid' (megajoule, GLO, None)", -0.01931060099403325], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.019012270837263645], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001515967266568427], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.01689266931889745], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.004532851705376202], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.01409093379981137], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.004107489363363929], ["'erbe - APOS' (unit, GLO, None)", 0.4021355177913509]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04733901032464305], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00022606768106907453], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0018946421211304162], ["'mixed heating grid' (megajoule, GLO, None)", -0.006736044014858922], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.033975555216720264], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687907130229064e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.373662056739142], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0021190769951425934], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.01684144138356203]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04733901032464305], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.0006306570537521222], ["'remanufacturing - APOS' (unit, GLO, None)", 0.13348716899005464], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0009473210605652081], ["'mixed heating grid' (megajoule, GLO, None)", -0.0033680220074294525], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.03426615700802269], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.343953565114532e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.2123704339336062], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0010595384975712967], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.008420720691781014]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0036127782740698884], ["'dishwasher - APOS' (unit, GLO, None)", 0.0037432189053230908], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 9.247113371684949e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.937239229987322e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002762517651107077], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0008868704658256455], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001094346589396551], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0004302867216853906], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.004762136382314315], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.005546869234190737], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001987619065972134], ["'erbe - APOS' (unit, GLO, None)", 0.04733901032464305]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0596440140289755], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004016454162716963], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0024291567375589545], ["'mixed heating grid' (megajoule, GLO, None)", -0.00881237095698274], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.046616717279929755], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867433381193686e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.764906261533137], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0028220894079152093], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02314080500842337]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0596440140289755], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.0011204631889036093], ["'remanufacturing - APOS' (unit, GLO, None)", 0.1749751897148625], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0012145783687794772], ["'mixed heating grid' (megajoule, GLO, None)", -0.004406185478491358], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.0473457078212317], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.433716690596843e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.2798654130670928], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0014110447039576046], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.01157040250421168]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.004653208490198113], ["'dishwasher - APOS' (unit, GLO, None)", 0.004811524746447013], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00016428976852941426], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00010176485542101897], ["'mixed heating grid' (megajoule, GLO, None)", -0.00036140396741867246], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.001277261879277824], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001668084272049219], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.000576167923364672], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.006091401731153695], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.007733463064149966], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.002554561574475857], ["'erbe - APOS' (unit, GLO, None)", 0.0596440140289755]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 2.397229460136879], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.17452026779792967], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.06168038484635542], ["'mixed heating grid' (megajoule, GLO, None)", -0.6538838384527329], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.9249233533271755], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0022289119925686476], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 104.0382770643804], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.19952391777065243], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.338663258593473]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 2.397229460136879], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.4868561366740439], ["'remanufacturing - APOS' (unit, GLO, None)", 1.1630698036050524], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.03084019242317771], ["'mixed heating grid' (megajoule, GLO, None)", -0.3269419192263656], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 1.0642595740773564], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0011144559962843238], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 2.441453384602094], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.09976195888532621], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 2.169331629296737]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.16230179973352646], ["'dishwasher - APOS' (unit, GLO, None)", 0.16329599455516472], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.07138608643007124], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0025839812430176017], ["'mixed heating grid' (megajoule, GLO, None)", -0.02681641689862317], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.04878462728300711], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.1087918089915119], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.038050665957482216], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.411997550290182], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.738454981735158], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.1695761285090606], ["'erbe - APOS' (unit, GLO, None)", 2.397229460136879]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.05664836073255422], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0028514051991697723], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.011170072713441418], ["'mixed heating grid' (megajoule, GLO, None)", -0.036662006991770364], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0017761635000255451], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301597241005268], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.5298933884172465], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.04027069922776974], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.06836056272118404]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.05664836073255422], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.007954515181266542], ["'remanufacturing - APOS' (unit, GLO, None)", 0.10636448886910164], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.005585036356720709], ["'mixed heating grid' (megajoule, GLO, None)", -0.018331003495885134], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.0018708310040295268], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.150798620502634e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.2631255212415191], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.02013534961388487], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.03418028136059202]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.010845975972005059], ["'dishwasher - APOS' (unit, GLO, None)", 0.011449545603397494], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0011663439471154798], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00046794874005039264], ["'mixed heating grid' (megajoule, GLO, None)", -0.0015035448286318516], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.00017807208229395392], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0003921538726738602], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.009733702354597371], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.001140849934304267], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.00368278091818217], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0009397842553085969], ["'erbe - APOS' (unit, GLO, None)", 0.05664836073255422]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0001929571944926478], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.466690299442693e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.843903665816868e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.9670383424578984e-05], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 7.437204806428965e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.30098917226177e-07], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.00248280444050708], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.048436864090848e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.928300334945717e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0001929571944926478], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 1.8040012773896645e-06], ["'remanufacturing - APOS' (unit, GLO, None)", 0.00019497447198044935], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -9.21951832908434e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9835191712289438e-05], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 7.566249364481274e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.650494586130885e-07], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.000762038885620056], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 1.024218432045424e-05], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 2.464150167472859e-05]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 3.9451032861713715e-05], ["'dishwasher - APOS' (unit, GLO, None)", 3.6933251108823907e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.645146712512641e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.724680217658717e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.6269212937867101e-06], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.231052336820936e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.743599771224872e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.1050748548527194e-06], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 8.239206501878196e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 9.910056629805164e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.370918632118397e-06], ["'erbe - APOS' (unit, GLO, None)", 0.0001929571944926478]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.933851091111311e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 2.546012409108146e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.554602652866069e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.308007237750558e-06], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 2.061096110057272e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762570652132e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.0001024626752407366], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 5.8200245827728e-06], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 9.421560883680118e-06]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.933851091111311e-05], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 7.102566265343861e-07], ["'remanufacturing - APOS' (unit, GLO, None)", 0.00031668534034451584], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.773013264330345e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.1540036188752733e-06], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 2.0978615723097127e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.104881285326066e-06], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 4.665799443030853e-05], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.9100122913864e-06], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 4.710780441840059e-06]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 2.5640092127428684e-05], ["'dishwasher - APOS' (unit, GLO, None)", 9.31944672021049e-06], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.0414255271431809e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -6.512709194921124e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.7667559786027033e-07], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.008622327216822e-07], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.576292573449543e-07], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 5.868571006862888e-07], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 3.659876294648502e-07], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.873306013396999e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 4.08211666406598e-07], ["'erbe - APOS' (unit, GLO, None)", 1.933851091111311e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.02035639153190085], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004686719151932565], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0029446653595514936], ["'mixed heating grid' (megajoule, GLO, None)", -0.005842415882739042], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.005679409083235195], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7790061215496216e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.2207235957621144], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0031896854307980737], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02807747836120623]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.02035639153190085], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.0013074458431796868], ["'remanufacturing - APOS' (unit, GLO, None)", 0.04597126916720194], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0014723326797757468], ["'mixed heating grid' (megajoule, GLO, None)", -0.002921207941369513], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.005832247276756507], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.8895030607748108e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.0539988279977127], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0015948427153990368], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.01403873918060312]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.003704818228362698], ["'dishwasher - APOS' (unit, GLO, None)", 0.0037208607394773126], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0001917064090462605], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00012336109891334992], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002396031998242957], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0005333000221822874], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0006345842404256435], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.000679213761732122], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0007600315844801862], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.009664756277188827], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001381290014104074], ["'erbe - APOS' (unit, GLO, None)", 0.02035639153190085]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.6175254847967954], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0071217158359996625], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.03787001053822728], ["'mixed heating grid' (megajoule, GLO, None)", -0.16181167047419423], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.51144906264149], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0017273670722487591], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 20.6725996609325], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.05595965190947118], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.3179891319056599]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.6175254847967954], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.01986732603648933], ["'remanufacturing - APOS' (unit, GLO, None)", 2.7627106410118967], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.01893500526911364], ["'mixed heating grid' (megajoule, GLO, None)", -0.0809058352370969], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.49805022665749965], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008636835361243796], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 3.602590931560361], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.02797982595473559], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.1589945659528299]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.08300975721453435], ["'dishwasher - APOS' (unit, GLO, None)", 0.07814518332535388], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0029130795443640155], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0015864913480584466], ["'mixed heating grid' (megajoule, GLO, None)", -0.006636055151273315], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.011546586170202378], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.02032961031873017], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.01017330732372069], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.07069584110948683], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.09978981512830512], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.02960114854147078], ["'erbe - APOS' (unit, GLO, None)", 0.6175254847967954]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.06161854524617778], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0001470920067738895], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.01023510522171726], ["'mixed heating grid' (megajoule, GLO, None)", -0.01076184936327412], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0004395157909224603], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393756329858662e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.2299696978730615], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.005311756435412458], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.009525746229796041]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.06161854524617778], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.00041033999716276926], ["'remanufacturing - APOS' (unit, GLO, None)", 0.037636909275108904], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00511755261085863], ["'mixed heating grid' (megajoule, GLO, None)", -0.005380924681637046], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.00045791715769758076], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.196878164929331e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.1216259130743292], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.002655878217706229], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.004762873114898021]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.011894460130149732], ["'dishwasher - APOS' (unit, GLO, None)", 0.012604823642833865], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.016678086290483e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00042878007293742804], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004413539869843451], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.193462070518234e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001377478399011191], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0010380120175177562], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.001718645325951827], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.001680641094072538], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.000301598191164297], ["'erbe - APOS' (unit, GLO, None)", 0.06161854524617778]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04507704151081417], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0003449109812231338], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0008494382062112871], ["'mixed heating grid' (megajoule, GLO, None)", -0.08341675634696828], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00017721025867540596], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5569936688031157e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.07342262668526897], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.014954200603440153], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.00302448316665747]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04507704151081417], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.0009621921092336098], ["'remanufacturing - APOS' (unit, GLO, None)", 0.01939177213942737], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00042471910310564354], ["'mixed heating grid' (megajoule, GLO, None)", -0.04170837817348403], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.00017996053732571827], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.2784968344015579e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.02389611485733169], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.007477100301720076], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.001512241583328735]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.008491561210280218], ["'dishwasher - APOS' (unit, GLO, None)", 0.009128595747476891], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00014108301246010005], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.558558198720736e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0034210029105848174], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.821475520348565e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 6.454387985221167e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0004774852416650937], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0002490871664461206], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0004378711241432917], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0001433028186460568], ["'erbe - APOS' (unit, GLO, None)", 0.04507704151081417]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.002520186798035042], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00010199918275560397], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0002526926545537545], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007541863550701196], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0004784643630843808], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.338634147849931e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.06992668827404933], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0057917947040889975], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0089417879010331]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.002520186798035042], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.00028454533565909154], ["'remanufacturing - APOS' (unit, GLO, None)", 0.006019865274569055], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00012634632727687726], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003770931775350588], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.000500609472183699], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.1693170739249654e-06], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.0130383459541633], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0028958973520444987], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.00447089395051655]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00048173811065240884], ["'dishwasher - APOS' (unit, GLO, None)", 0.0003891299334322709], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 4.172193045462743e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.0586073372300137e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.092992138277988e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.487748082635315e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0002691429315149763], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00010777115624609226], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0002379731434731634], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.003236543319221325], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002143244002312219], ["'erbe - APOS' (unit, GLO, None)", 0.002520186798035042]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 2.380915911058635e-07], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 4.1309990087011025e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.026113058869568e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.231149068084592e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 6.387108555542945e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541955067056593e-10], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 9.308096938864206e-07], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.270474294371338e-08], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.265723364581013e-08]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 2.380915911058635e-07], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 1.1524175636314742e-08], ["'remanufacturing - APOS' (unit, GLO, None)", 2.660468191125888e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.013056529434784e-08], ["'mixed heating grid' (megajoule, GLO, None)", -6.155745340422944e-08], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 6.398063513994323e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7709775335282966e-10], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 4.100040847200682e-07], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 1.135237147185669e-08], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 4.132861682290506e-08]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 5.13200198541293e-08], ["'dishwasher - APOS' (unit, GLO, None)", 4.953638673814594e-08], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.689751316558396e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.488011469761984e-10], ["'mixed heating grid' (megajoule, GLO, None)", -5.049062957761782e-09], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.1892492003989817e-09], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.932699681890049e-09], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.0403629965282962e-09], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.598949792746332e-09], ["'scalpel raw materials - APOS' (unit, GLO, None)", 8.59385745680358e-09], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.291931835243747e-09], ["'erbe - APOS' (unit, GLO, None)", 2.380915911058635e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0002512291089345376], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.510637697123551e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.7486671273289508e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00018665701844782626], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 1.9225316240636034e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4879441085090449e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.007734785274395214], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 9.911420050097766e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.000774038844696511]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0002512291089345376], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 1.816261205300291e-05], ["'remanufacturing - APOS' (unit, GLO, None)", 0.00040884646351753255], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.3743335636644754e-05], ["'mixed heating grid' (megajoule, GLO, None)", -9.332850922391289e-05], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 2.026145840507017e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.439720542545224e-07], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.00218039025522907], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 4.955710025048883e-05], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.0003870194223482555]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 3.905293070083725e-05], ["'dishwasher - APOS' (unit, GLO, None)", 3.857819297300278e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.6631230356572677e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.1515012946189093e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.654987215458964e-06], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.6469667484215746e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.702644774363349e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 2.072512561315682e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.050135129881131e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0002662046026698715], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.160487730290169e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0002512291089345376]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0004644310378056788], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4408455128424682e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -6.163349222029371e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004638683380675079], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.184561046287529e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.696902510372038e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.006500638077575159], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00018987034810905498], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004064415379704235]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0004644310378056788], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 4.0195015126745875e-05], ["'remanufacturing - APOS' (unit, GLO, None)", 0.000702173731331126], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.0816746110146855e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00023193416903375332], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 9.830372960960171e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.48451255186019e-07], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.002668901662430136], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 9.493517405452749e-05], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.0002032207689852117]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.528971290395632e-05], ["'dishwasher - APOS' (unit, GLO, None)", 8.789922982717447e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.893660582233701e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.5820167665234757e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9023695048228293e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 4.735524956146462e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 7.066756009052379e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.0092905370072155e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.404657497752458e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.367528238464521e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.043168354168281e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0004644310378056788]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0004758870383549195], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.6300400748985364e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -6.335506973642869e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00048028274747143263], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.28106540419633e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497879343031775e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.00664993425956566], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0002053207626659586], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004353569215360647]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0004758870383549195], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 4.547294271335755e-05], ["'remanufacturing - APOS' (unit, GLO, None)", 0.0007398091878108615], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.1677534868214344e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00024014137373571566], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 9.931047358048217e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.748939671515887e-07], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.002726784485332678], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0001026603813329793], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.0002176784607680324]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.738330949188065e-05], ["'dishwasher - APOS' (unit, GLO, None)", 9.003224014046775e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.667545445547793e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.6541389496320084e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9696866060929727e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 4.795803395428149e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 7.275640228222473e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.372463272837626e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.446060456717309e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.567946930249242e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.093469054767085e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0004758870383549195]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.003918048416985813], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4729126842013713e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00024384501904311146], ["'mixed heating grid' (megajoule, GLO, None)", -0.000864968531582597], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0003383264754520451], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521961605174365e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.01797207593782729], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.001355875842198566], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.004321421026682468]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.003918048416985813], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 4.1089587429313376e-05], ["'remanufacturing - APOS' (unit, GLO, None)", 0.00732126996040937], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00012192250952155573], ["'mixed heating grid' (megajoule, GLO, None)", -0.00043248426579129735], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.00035459381911759374], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.7609808025871827e-06], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.007912144741648499], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.000677937921099283], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.002160710513341234]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0007806651709747298], ["'dishwasher - APOS' (unit, GLO, None)", 0.0007847780693227072], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.024828720758739e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.0215418677756526e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.547320698733792e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.2526103160390573e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 6.301241540122756e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0002473631330352028], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 5.699170754192965e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0009870058369205444], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.071787561422413e-05], ["'erbe - APOS' (unit, GLO, None)", 0.003918048416985813]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.937452421499646e-09], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 3.597297933998261e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.7288196470726196e-10], ["'mixed heating grid' (megajoule, GLO, None)", -2.252548158490381e-09], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 1.3426935264891612e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.295387195175217e-12], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.545105739985617e-08], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 4.76692483012295e-10], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 1.143078486295577e-09]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.937452421499646e-09], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 1.0035319075091446e-10], ["'remanufacturing - APOS' (unit, GLO, None)", 3.158892011689949e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.644098235363098e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.1262740792451876e-09], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 1.465632192854983e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.1476935975876085e-12], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 5.130679510050549e-09], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.383462415061475e-10], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 5.715392431477886e-10]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 3.6150160764678286e-10], ["'dishwasher - APOS' (unit, GLO, None)", 3.7486078082173564e-10], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.4714452623259322e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.242557827295916e-12], ["'mixed heating grid' (megajoule, GLO, None)", -9.237920705494001e-11], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.6896840652360666e-11], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.025299959279921e-11], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 7.058378432633781e-11], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 4.382512850062484e-11], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.599393638783163e-10], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.609744702468704e-11], ["'erbe - APOS' (unit, GLO, None)", 1.937452421499646e-09]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 7.491671420801398e-07], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.5785129430796116e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.839196249382119e-08], ["'mixed heating grid' (megajoule, GLO, None)", -6.130639570656273e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 5.709713115172189e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.056701332610554e-09], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.234043540896061e-05], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 1.728894955783713e-07], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.193194802088462e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 7.491671420801398e-07], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 4.4035499340434255e-08], ["'remanufacturing - APOS' (unit, GLO, None)", 1.8576983035139196e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.9195981246910593e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.0653197853281285e-07], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 6.087200597376341e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.528350666305277e-09], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 3.408671593619507e-06], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 8.644474778918565e-08], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 4.096597401044231e-07]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 1.3052470789285598e-07], ["'dishwasher - APOS' (unit, GLO, None)", 1.3218800145061536e-07], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.456777932299508e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.2840806877576143e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.5142353567100567e-08], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.3138883687104364e-08], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.898883331432844e-08], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.386899777636063e-08], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 3.58767096172388e-08], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.372862535186422e-07], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.251743611892212e-08], ["'erbe - APOS' (unit, GLO, None)", 7.491671420801398e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.01119654045124362], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.001231658058094382], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0019347367878265354], ["'mixed heating grid' (megajoule, GLO, None)", -0.011199608937098326], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.000622181339197508], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6844757544177976e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.1259441550732165], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.016226349633014694], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0262426517770528]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.01119654045124362], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.0034359349290807714], ["'remanufacturing - APOS' (unit, GLO, None)", 0.03557632750017069], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0009673683939132677], ["'mixed heating grid' (megajoule, GLO, None)", -0.005599804468549148], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.000654359665936078], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.8422378772088988e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.05398129540756439], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.008113174816507347], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.0131213258885264]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0021621909321833466], ["'dishwasher - APOS' (unit, GLO, None)", 0.0022508013436134794], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0005037996428542169], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.105208134438695e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00045930693602925734], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.940900910480594e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001718795484363119], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.003652386512654648], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0003206258918285451], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.00169974622022297], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002888118285970352], ["'erbe - APOS' (unit, GLO, None)", 0.01119654045124362]]</t>
   </si>
 </sst>
 </file>

--- a/Brighway/Results/Lobster - APOS_recipe.xlsx
+++ b/Brighway/Results/Lobster - APOS_recipe.xlsx
@@ -14,258 +14,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'climate change', 'global warming potential (GWP1000)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'land use', 'agricultural land occupation (LOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, midpoint (H)', 'water use', 'water consumption potential (WCP)')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: ecosystem quality', 'ecosystem quality')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: human health', 'human health')</t>
-  </si>
-  <si>
-    <t>('ReCiPe 2016 v1.03, endpoint (H)', 'total: natural resources', 'natural resources')</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0007291589618496478], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.2469163995006814e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.426206879223645e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004376214642686442], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 4.901127965759812e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.889631921981318e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.01866845726308992], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.000218151917533937], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.002301881235048907]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0007291589618496478], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 3.478500861170743e-05], ["'remanufacturing - APOS' (unit, GLO, None)", 0.001042198467854989], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.7131034396118224e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002188107321343215], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 5.189630632265095e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.444815960990659e-06], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.003706692163472518], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0001090759587669685], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.001150940617524454]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00011267472877724954], ["'dishwasher - APOS' (unit, GLO, None)", 0.00011224066524701832], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.1004094245886115e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.1110667241266456e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.794728503671712e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 3.534269162624737e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.260823403167369e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.6461124616696426e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 6.083207052314138e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0008408427683130576], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.864624402830913e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0007291589618496478]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.4021355177913509], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.009120545536412762], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.04527978045819679], ["'mixed heating grid' (megajoule, GLO, None)", -0.470864170576641], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.45526181809020916], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0017093836165403959], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 2.141245235342658], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.09053732685803036], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.1697364715358333]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.4021355177913509], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.025443426266340344], ["'remanufacturing - APOS' (unit, GLO, None)", 0.862517849348209], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.022639890229098396], ["'mixed heating grid' (megajoule, GLO, None)", -0.23543208528831988], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.4979407077309331], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008546918082701979], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 1.094888672824893], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.04526866342901518], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.08486823576791667]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.07846765499462807], ["'dishwasher - APOS' (unit, GLO, None)", 0.08170251317306347], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.003730684465288711], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.001896909425636453], ["'mixed heating grid' (megajoule, GLO, None)", -0.01931060099403325], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.019012270837263645], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001515967266568427], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.01689266931889745], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.004532851705376202], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.01409093379981137], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.004107489363363929], ["'erbe - APOS' (unit, GLO, None)", 0.4021355177913509]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04733901032464305], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00022606768106907453], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0018946421211304162], ["'mixed heating grid' (megajoule, GLO, None)", -0.006736044014858922], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.033975555216720264], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687907130229064e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.373662056739142], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0021190769951425934], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.01684144138356203]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04733901032464305], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.0006306570537521222], ["'remanufacturing - APOS' (unit, GLO, None)", 0.13348716899005464], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0009473210605652081], ["'mixed heating grid' (megajoule, GLO, None)", -0.0033680220074294525], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.03426615700802269], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.343953565114532e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.2123704339336062], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0010595384975712967], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.008420720691781014]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0036127782740698884], ["'dishwasher - APOS' (unit, GLO, None)", 0.0037432189053230908], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 9.247113371684949e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.937239229987322e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002762517651107077], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0008868704658256455], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001094346589396551], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0004302867216853906], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.004762136382314315], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.005546869234190737], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001987619065972134], ["'erbe - APOS' (unit, GLO, None)", 0.04733901032464305]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0596440140289755], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004016454162716963], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0024291567375589545], ["'mixed heating grid' (megajoule, GLO, None)", -0.00881237095698274], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.046616717279929755], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867433381193686e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.764906261533137], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0028220894079152093], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02314080500842337]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0596440140289755], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.0011204631889036093], ["'remanufacturing - APOS' (unit, GLO, None)", 0.1749751897148625], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0012145783687794772], ["'mixed heating grid' (megajoule, GLO, None)", -0.004406185478491358], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.0473457078212317], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.433716690596843e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.2798654130670928], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0014110447039576046], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.01157040250421168]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.004653208490198113], ["'dishwasher - APOS' (unit, GLO, None)", 0.004811524746447013], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00016428976852941426], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00010176485542101897], ["'mixed heating grid' (megajoule, GLO, None)", -0.00036140396741867246], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.001277261879277824], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001668084272049219], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.000576167923364672], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.006091401731153695], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.007733463064149966], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.002554561574475857], ["'erbe - APOS' (unit, GLO, None)", 0.0596440140289755]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 2.397229460136879], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.17452026779792967], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.06168038484635542], ["'mixed heating grid' (megajoule, GLO, None)", -0.6538838384527329], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.9249233533271755], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0022289119925686476], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 104.0382770643804], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.19952391777065243], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.338663258593473]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 2.397229460136879], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.4868561366740439], ["'remanufacturing - APOS' (unit, GLO, None)", 1.1630698036050524], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.03084019242317771], ["'mixed heating grid' (megajoule, GLO, None)", -0.3269419192263656], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 1.0642595740773564], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0011144559962843238], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 2.441453384602094], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.09976195888532621], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 2.169331629296737]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.16230179973352646], ["'dishwasher - APOS' (unit, GLO, None)", 0.16329599455516472], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.07138608643007124], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0025839812430176017], ["'mixed heating grid' (megajoule, GLO, None)", -0.02681641689862317], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.04878462728300711], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.1087918089915119], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.038050665957482216], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.411997550290182], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.738454981735158], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.1695761285090606], ["'erbe - APOS' (unit, GLO, None)", 2.397229460136879]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.05664836073255422], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0028514051991697723], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.011170072713441418], ["'mixed heating grid' (megajoule, GLO, None)", -0.036662006991770364], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0017761635000255451], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301597241005268], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.5298933884172465], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.04027069922776974], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.06836056272118404]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.05664836073255422], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.007954515181266542], ["'remanufacturing - APOS' (unit, GLO, None)", 0.10636448886910164], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.005585036356720709], ["'mixed heating grid' (megajoule, GLO, None)", -0.018331003495885134], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.0018708310040295268], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.150798620502634e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.2631255212415191], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.02013534961388487], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.03418028136059202]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.010845975972005059], ["'dishwasher - APOS' (unit, GLO, None)", 0.011449545603397494], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0011663439471154798], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00046794874005039264], ["'mixed heating grid' (megajoule, GLO, None)", -0.0015035448286318516], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.00017807208229395392], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0003921538726738602], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.009733702354597371], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.001140849934304267], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.00368278091818217], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0009397842553085969], ["'erbe - APOS' (unit, GLO, None)", 0.05664836073255422]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0001929571944926478], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.466690299442693e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.843903665816868e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.9670383424578984e-05], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 7.437204806428965e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.30098917226177e-07], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.00248280444050708], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.048436864090848e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.928300334945717e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0001929571944926478], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 1.8040012773896645e-06], ["'remanufacturing - APOS' (unit, GLO, None)", 0.00019497447198044935], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -9.21951832908434e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9835191712289438e-05], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 7.566249364481274e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.650494586130885e-07], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.000762038885620056], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 1.024218432045424e-05], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 2.464150167472859e-05]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 3.9451032861713715e-05], ["'dishwasher - APOS' (unit, GLO, None)", 3.6933251108823907e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.645146712512641e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.724680217658717e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.6269212937867101e-06], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.231052336820936e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.743599771224872e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.1050748548527194e-06], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 8.239206501878196e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 9.910056629805164e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.370918632118397e-06], ["'erbe - APOS' (unit, GLO, None)", 0.0001929571944926478]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.933851091111311e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 2.546012409108146e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.554602652866069e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.308007237750558e-06], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 2.061096110057272e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762570652132e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.0001024626752407366], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 5.8200245827728e-06], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 9.421560883680118e-06]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.933851091111311e-05], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 7.102566265343861e-07], ["'remanufacturing - APOS' (unit, GLO, None)", 0.00031668534034451584], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.773013264330345e-07], ["'mixed heating grid' (megajoule, GLO, None)", -2.1540036188752733e-06], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 2.0978615723097127e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.104881285326066e-06], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 4.665799443030853e-05], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.9100122913864e-06], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 4.710780441840059e-06]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 2.5640092127428684e-05], ["'dishwasher - APOS' (unit, GLO, None)", 9.31944672021049e-06], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.0414255271431809e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -6.512709194921124e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.7667559786027033e-07], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.008622327216822e-07], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.576292573449543e-07], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 5.868571006862888e-07], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 3.659876294648502e-07], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.873306013396999e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 4.08211666406598e-07], ["'erbe - APOS' (unit, GLO, None)", 1.933851091111311e-05]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.02035639153190085], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004686719151932565], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0029446653595514936], ["'mixed heating grid' (megajoule, GLO, None)", -0.005842415882739042], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.005679409083235195], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7790061215496216e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.2207235957621144], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0031896854307980737], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02807747836120623]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.02035639153190085], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.0013074458431796868], ["'remanufacturing - APOS' (unit, GLO, None)", 0.04597126916720194], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0014723326797757468], ["'mixed heating grid' (megajoule, GLO, None)", -0.002921207941369513], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.005832247276756507], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.8895030607748108e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.0539988279977127], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0015948427153990368], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.01403873918060312]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.003704818228362698], ["'dishwasher - APOS' (unit, GLO, None)", 0.0037208607394773126], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0001917064090462605], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00012336109891334992], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002396031998242957], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0005333000221822874], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0006345842404256435], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.000679213761732122], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0007600315844801862], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.009664756277188827], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001381290014104074], ["'erbe - APOS' (unit, GLO, None)", 0.02035639153190085]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.6175254847967954], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0071217158359996625], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.03787001053822728], ["'mixed heating grid' (megajoule, GLO, None)", -0.16181167047419423], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.51144906264149], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0017273670722487591], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 20.6725996609325], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.05595965190947118], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.3179891319056599]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.6175254847967954], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.01986732603648933], ["'remanufacturing - APOS' (unit, GLO, None)", 2.7627106410118967], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.01893500526911364], ["'mixed heating grid' (megajoule, GLO, None)", -0.0809058352370969], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.49805022665749965], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0008636835361243796], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 3.602590931560361], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.02797982595473559], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.1589945659528299]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.08300975721453435], ["'dishwasher - APOS' (unit, GLO, None)", 0.07814518332535388], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0029130795443640155], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0015864913480584466], ["'mixed heating grid' (megajoule, GLO, None)", -0.006636055151273315], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.011546586170202378], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.02032961031873017], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.01017330732372069], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.07069584110948683], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.09978981512830512], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.02960114854147078], ["'erbe - APOS' (unit, GLO, None)", 0.6175254847967954]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.06161854524617778], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0001470920067738895], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.01023510522171726], ["'mixed heating grid' (megajoule, GLO, None)", -0.01076184936327412], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0004395157909224603], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393756329858662e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.2299696978730615], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.005311756435412458], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.009525746229796041]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.06161854524617778], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.00041033999716276926], ["'remanufacturing - APOS' (unit, GLO, None)", 0.037636909275108904], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00511755261085863], ["'mixed heating grid' (megajoule, GLO, None)", -0.005380924681637046], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.00045791715769758076], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.196878164929331e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.1216259130743292], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.002655878217706229], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.004762873114898021]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.011894460130149732], ["'dishwasher - APOS' (unit, GLO, None)", 0.012604823642833865], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.016678086290483e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00042878007293742804], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004413539869843451], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.193462070518234e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001377478399011191], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0010380120175177562], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.001718645325951827], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.001680641094072538], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.000301598191164297], ["'erbe - APOS' (unit, GLO, None)", 0.06161854524617778]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04507704151081417], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0003449109812231338], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0008494382062112871], ["'mixed heating grid' (megajoule, GLO, None)", -0.08341675634696828], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00017721025867540596], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5569936688031157e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.07342262668526897], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.014954200603440153], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.00302448316665747]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04507704151081417], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.0009621921092336098], ["'remanufacturing - APOS' (unit, GLO, None)", 0.01939177213942737], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00042471910310564354], ["'mixed heating grid' (megajoule, GLO, None)", -0.04170837817348403], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.00017996053732571827], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.2784968344015579e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.02389611485733169], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.007477100301720076], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.001512241583328735]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.008491561210280218], ["'dishwasher - APOS' (unit, GLO, None)", 0.009128595747476891], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00014108301246010005], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.558558198720736e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0034210029105848174], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.821475520348565e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 6.454387985221167e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0004774852416650937], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0002490871664461206], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0004378711241432917], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0001433028186460568], ["'erbe - APOS' (unit, GLO, None)", 0.04507704151081417]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.002520186798035042], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00010199918275560397], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0002526926545537545], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007541863550701196], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0004784643630843808], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.338634147849931e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.06992668827404933], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0057917947040889975], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0089417879010331]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.002520186798035042], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.00028454533565909154], ["'remanufacturing - APOS' (unit, GLO, None)", 0.006019865274569055], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00012634632727687726], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003770931775350588], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.000500609472183699], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.1693170739249654e-06], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.0130383459541633], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0028958973520444987], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.00447089395051655]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00048173811065240884], ["'dishwasher - APOS' (unit, GLO, None)", 0.0003891299334322709], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 4.172193045462743e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.0586073372300137e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.092992138277988e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.487748082635315e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0002691429315149763], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00010777115624609226], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0002379731434731634], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.003236543319221325], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002143244002312219], ["'erbe - APOS' (unit, GLO, None)", 0.002520186798035042]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 2.380915911058635e-07], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 4.1309990087011025e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.026113058869568e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.231149068084592e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 6.387108555542945e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541955067056593e-10], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 9.308096938864206e-07], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.270474294371338e-08], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.265723364581013e-08]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 2.380915911058635e-07], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 1.1524175636314742e-08], ["'remanufacturing - APOS' (unit, GLO, None)", 2.660468191125888e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.013056529434784e-08], ["'mixed heating grid' (megajoule, GLO, None)", -6.155745340422944e-08], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 6.398063513994323e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.7709775335282966e-10], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 4.100040847200682e-07], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 1.135237147185669e-08], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 4.132861682290506e-08]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 5.13200198541293e-08], ["'dishwasher - APOS' (unit, GLO, None)", 4.953638673814594e-08], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.689751316558396e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.488011469761984e-10], ["'mixed heating grid' (megajoule, GLO, None)", -5.049062957761782e-09], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.1892492003989817e-09], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.932699681890049e-09], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.0403629965282962e-09], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.598949792746332e-09], ["'scalpel raw materials - APOS' (unit, GLO, None)", 8.59385745680358e-09], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.291931835243747e-09], ["'erbe - APOS' (unit, GLO, None)", 2.380915911058635e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0002512291089345376], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.510637697123551e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.7486671273289508e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00018665701844782626], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 1.9225316240636034e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4879441085090449e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.007734785274395214], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 9.911420050097766e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.000774038844696511]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0002512291089345376], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 1.816261205300291e-05], ["'remanufacturing - APOS' (unit, GLO, None)", 0.00040884646351753255], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.3743335636644754e-05], ["'mixed heating grid' (megajoule, GLO, None)", -9.332850922391289e-05], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 2.026145840507017e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.439720542545224e-07], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.00218039025522907], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 4.955710025048883e-05], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.0003870194223482555]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 3.905293070083725e-05], ["'dishwasher - APOS' (unit, GLO, None)", 3.857819297300278e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.6631230356572677e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.1515012946189093e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.654987215458964e-06], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.6469667484215746e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.702644774363349e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 2.072512561315682e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.050135129881131e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0002662046026698715], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.160487730290169e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0002512291089345376]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0004644310378056788], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4408455128424682e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -6.163349222029371e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004638683380675079], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.184561046287529e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.696902510372038e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.006500638077575159], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00018987034810905498], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004064415379704235]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0004644310378056788], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 4.0195015126745875e-05], ["'remanufacturing - APOS' (unit, GLO, None)", 0.000702173731331126], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.0816746110146855e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00023193416903375332], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 9.830372960960171e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.48451255186019e-07], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.002668901662430136], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 9.493517405452749e-05], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.0002032207689852117]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.528971290395632e-05], ["'dishwasher - APOS' (unit, GLO, None)", 8.789922982717447e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.893660582233701e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.5820167665234757e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9023695048228293e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 4.735524956146462e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 7.066756009052379e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.0092905370072155e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.404657497752458e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.367528238464521e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.043168354168281e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0004644310378056788]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0004758870383549195], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.6300400748985364e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -6.335506973642869e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00048028274747143263], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.28106540419633e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497879343031775e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.00664993425956566], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0002053207626659586], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004353569215360647]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0004758870383549195], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 4.547294271335755e-05], ["'remanufacturing - APOS' (unit, GLO, None)", 0.0007398091878108615], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.1677534868214344e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00024014137373571566], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 9.931047358048217e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.748939671515887e-07], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.002726784485332678], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0001026603813329793], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.0002176784607680324]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.738330949188065e-05], ["'dishwasher - APOS' (unit, GLO, None)", 9.003224014046775e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.667545445547793e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.6541389496320084e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.9696866060929727e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 4.795803395428149e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 7.275640228222473e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.372463272837626e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.446060456717309e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.567946930249242e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.093469054767085e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0004758870383549195]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.003918048416985813], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4729126842013713e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00024384501904311146], ["'mixed heating grid' (megajoule, GLO, None)", -0.000864968531582597], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0003383264754520451], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521961605174365e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.01797207593782729], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.001355875842198566], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.004321421026682468]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.003918048416985813], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 4.1089587429313376e-05], ["'remanufacturing - APOS' (unit, GLO, None)", 0.00732126996040937], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00012192250952155573], ["'mixed heating grid' (megajoule, GLO, None)", -0.00043248426579129735], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.00035459381911759374], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.7609808025871827e-06], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.007912144741648499], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.000677937921099283], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.002160710513341234]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0007806651709747298], ["'dishwasher - APOS' (unit, GLO, None)", 0.0007847780693227072], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.024828720758739e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.0215418677756526e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.547320698733792e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.2526103160390573e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 6.301241540122756e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0002473631330352028], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 5.699170754192965e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0009870058369205444], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.071787561422413e-05], ["'erbe - APOS' (unit, GLO, None)", 0.003918048416985813]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.937452421499646e-09], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 3.597297933998261e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.7288196470726196e-10], ["'mixed heating grid' (megajoule, GLO, None)", -2.252548158490381e-09], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 1.3426935264891612e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.295387195175217e-12], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.545105739985617e-08], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 4.76692483012295e-10], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 1.143078486295577e-09]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 1.937452421499646e-09], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 1.0035319075091446e-10], ["'remanufacturing - APOS' (unit, GLO, None)", 3.158892011689949e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.644098235363098e-11], ["'mixed heating grid' (megajoule, GLO, None)", -1.1262740792451876e-09], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 1.465632192854983e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.1476935975876085e-12], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 5.130679510050549e-09], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.383462415061475e-10], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 5.715392431477886e-10]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 3.6150160764678286e-10], ["'dishwasher - APOS' (unit, GLO, None)", 3.7486078082173564e-10], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.4714452623259322e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.242557827295916e-12], ["'mixed heating grid' (megajoule, GLO, None)", -9.237920705494001e-11], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.6896840652360666e-11], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.025299959279921e-11], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 7.058378432633781e-11], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 4.382512850062484e-11], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.599393638783163e-10], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.609744702468704e-11], ["'erbe - APOS' (unit, GLO, None)", 1.937452421499646e-09]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 7.491671420801398e-07], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.5785129430796116e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -7.839196249382119e-08], ["'mixed heating grid' (megajoule, GLO, None)", -6.130639570656273e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 5.709713115172189e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.056701332610554e-09], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.234043540896061e-05], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 1.728894955783713e-07], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.193194802088462e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 7.491671420801398e-07], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 4.4035499340434255e-08], ["'remanufacturing - APOS' (unit, GLO, None)", 1.8576983035139196e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.9195981246910593e-08], ["'mixed heating grid' (megajoule, GLO, None)", -3.0653197853281285e-07], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 6.087200597376341e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.528350666305277e-09], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 3.408671593619507e-06], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 8.644474778918565e-08], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 4.096597401044231e-07]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 1.3052470789285598e-07], ["'dishwasher - APOS' (unit, GLO, None)", 1.3218800145061536e-07], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.456777932299508e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.2840806877576143e-09], ["'mixed heating grid' (megajoule, GLO, None)", -2.5142353567100567e-08], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.3138883687104364e-08], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.898883331432844e-08], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.386899777636063e-08], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 3.58767096172388e-08], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.372862535186422e-07], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.251743611892212e-08], ["'erbe - APOS' (unit, GLO, None)", 7.491671420801398e-07]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.01119654045124362], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.001231658058094382], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0019347367878265354], ["'mixed heating grid' (megajoule, GLO, None)", -0.011199608937098326], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.000622181339197508], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6844757544177976e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.1259441550732165], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.016226349633014694], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0262426517770528]]</t>
-  </si>
-  <si>
-    <t>[["'erbe - APOS' (unit, GLO, None)", 0.01119654045124362], ["'sc2 Transport - APOS' (ton kilometer, GLO, None)", 0.0034359349290807714], ["'remanufacturing - APOS' (unit, GLO, None)", 0.03557632750017069], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0009673683939132677], ["'mixed heating grid' (megajoule, GLO, None)", -0.005599804468549148], ["'sc2 Waste - APOS' (kilogram, GLO, None)", 0.000654359665936078], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.8422378772088988e-05], ["'diathermy RM  manufacturing- APOS' (unit, GLO, None)", 0.05398129540756439], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.008113174816507347], ["'diathermy RM raw materials - APOS' (unit, GLO, None)", 0.0131213258885264]]</t>
-  </si>
-  <si>
-    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0021621909321833466], ["'dishwasher - APOS' (unit, GLO, None)", 0.0022508013436134794], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0005037996428542169], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.105208134438695e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00045930693602925734], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.940900910480594e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001718795484363119], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.003652386512654648], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0003206258918285451], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.00169974622022297], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002888118285970352], ["'erbe - APOS' (unit, GLO, None)", 0.01119654045124362]]</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'acidification: terrestrial', 'terrestrial acidification potential (TAP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'climate change', 'global warming potential (GWP1000)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: freshwater', 'freshwater ecotoxicity potential (FETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: marine', 'marine ecotoxicity potential (METP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ecotoxicity: terrestrial', 'terrestrial ecotoxicity potential (TETP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'energy resources: non-renewable, fossil', 'fossil fuel potential (FFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: freshwater', 'freshwater eutrophication potential (FEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'eutrophication: marine', 'marine eutrophication potential (MEP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: carcinogenic', 'human toxicity potential (HTPc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'human toxicity: non-carcinogenic', 'human toxicity potential (HTPnc)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ionising radiation', 'ionising radiation potential (IRP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'land use', 'agricultural land occupation (LOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'material resources: metals/minerals', 'surplus ore potential (SOP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'ozone depletion', 'ozone depletion potential (ODPinfinite)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'particulate matter formation', 'particulate matter formation potential (PMFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: human health', 'photochemical oxidant formation potential: humans (HOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'photochemical oxidant formation: terrestrial ecosystems', 'photochemical oxidant formation potential: ecosystems (EOFP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, midpoint (H) Runes edition', 'water use', 'water consumption potential (WCP)')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: ecosystem quality', 'ecosystem quality')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: human health', 'human health')</t>
+  </si>
+  <si>
+    <t>('ReCiPe 2016 v1.03, endpoint (H) Runes edition', 'total: natural resources', 'natural resources')</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0007291589616744634], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.2469165516369823e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00010327869627679521], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004376215687072347], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 4.901128392572847e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.8896349772171356e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.0186684636219803], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00021815209075845852], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.002301881320604253]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00018779120857279419], ["'dishwasher - APOS' (unit, GLO, None)", 0.00011224066191506997], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.100410046889692e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -4.326662595366726e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.7947289319846044e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 3.534271079608677e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 5.260823544125574e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.6461133404365484e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 6.083206943659745e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0008408427790368805], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.864625089712758e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0007291589616744634]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.220486877269144], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.009047771853690793], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.04261000729568638], ["'mixed heating grid' (megajoule, GLO, None)", -0.1280059797096795], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.416175973971503], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0006568850033719071], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 2.067205925393974], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.07332792867031873], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.165247419908084]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.07045510006094838], ["'dishwasher - APOS' (unit, GLO, None)", 0.04404516465143635], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0037009169863008824], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0017850644072854318], ["'mixed heating grid' (megajoule, GLO, None)", -0.0052496506497760765], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.018984702211639764], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.00147322612969706], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.016432762817429326], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.004011484584919769], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.01368207729339304], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.003759312234762778], ["'erbe - APOS' (unit, GLO, None)", 0.220486877269144]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04733901023532649], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00022606769893202786], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0026420598045903657], ["'mixed heating grid' (megajoule, GLO, None)", -0.006736045118002202], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.033975555276264266], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.687910495699518e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.373662130499388], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.002119079312548026], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.01684144230197483]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.006021297016019799], ["'dishwasher - APOS' (unit, GLO, None)", 0.0037432188469626346], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 9.247114102354426e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00011068402045477268], ["'mixed heating grid' (megajoule, GLO, None)", -0.0002762518103516944], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0008868704873067509], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001094346605919413], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00043028678959810987], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.00476213636653862], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.005546869362455202], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001987619147899888], ["'erbe - APOS' (unit, GLO, None)", 0.04733901023532649]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.05964401391747467], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004016454413206291], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0034451899855975645], ["'mixed heating grid' (megajoule, GLO, None)", -0.008812372510360425], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.046616717362026716], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 8.867438141940573e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.764906365122155], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.002822092613106903], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02314080630834034]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.007755347338614041], ["'dishwasher - APOS' (unit, GLO, None)", 0.004811524667687391], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0001642897787754751], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00014432961667784093], ["'mixed heating grid' (megajoule, GLO, None)", -0.0003614040311242134], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.001277261909522338], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.001668084295236388], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0005761680228874838], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.006091401709511485], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.007733463243830838], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.002554561689212718], ["'erbe - APOS' (unit, GLO, None)", 0.05964401391747467]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 2.397229455060476], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.17452027038057644], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.11876208142067111], ["'mixed heating grid' (megajoule, GLO, None)", -0.6538840111064648], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.9249233610728212], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.0022289170463682503], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 104.0382878508444], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.19952422982259693], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.338663399795414]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.2705029872691484], ["'dishwasher - APOS' (unit, GLO, None)", 0.1632959878229926], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.07138608748648176], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.004975309274369358], ["'mixed heating grid' (megajoule, GLO, None)", -0.026816423979321883], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0487846304592783], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.1087918114013766], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.03805067788909538], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.4119975482713783], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.738455000319307], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.1695761403244584], ["'erbe - APOS' (unit, GLO, None)", 2.397229455060476]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.05664836079634064], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.002851405304992738], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.01121905730558912], ["'mixed heating grid' (megajoule, GLO, None)", -0.036662014018869094], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0017761638017313], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.00016301618206739812], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.529893831082886], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.04027071140155702], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.06836056880631601]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.01807662622970466], ["'dishwasher - APOS' (unit, GLO, None)", 0.011449545390682929], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0011663439904014976], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.000470000855445292], ["'mixed heating grid' (megajoule, GLO, None)", -0.0015035451168200556], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.00017807221639137892], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0003921539704141391], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00973370304998959], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.001140849861721553], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.003682781657079824], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0009397847328346153], ["'erbe - APOS' (unit, GLO, None)", 0.05664836079634064]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0001929571944741257], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.466691464412814e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.5411200572212414e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.9670390915396365e-05], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 7.437205138650515e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.30099152489302e-07], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.002482804928480864], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.048438200820021e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 4.928300999812763e-05]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 6.575172096778452e-05], ["'dishwasher - APOS' (unit, GLO, None)", 3.693325085297034e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.6451471890341294e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.4834842275913217e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.6269216009924707e-06], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.2310524824465987e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.743599879393724e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.105075503886639e-06], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 8.239206417938113e-06], ["'scalpel raw materials - APOS' (unit, GLO, None)", 9.910057453015261e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.370919160242777e-06], ["'erbe - APOS' (unit, GLO, None)", 0.0001929571944741257]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.933851091867314e-05], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 2.5460125519220577e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.0667268871389117e-06], ["'mixed heating grid' (megajoule, GLO, None)", -4.308008124871789e-06], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 2.061096150315346e-06], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 4.209762599464361e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.000102462734541451], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 5.82002618581017e-06], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 9.421561707099206e-06]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 4.273348682602745e-05], ["'dishwasher - APOS' (unit, GLO, None)", 9.319446691674725e-06], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.0414255855600421e-07], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.2847463214706157e-07], ["'mixed heating grid' (megajoule, GLO, None)", -1.7667563424198118e-07], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.0086225070483025e-07], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.576292704981725e-07], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 5.868571876714721e-07], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 3.659876195872929e-07], ["'scalpel raw materials - APOS' (unit, GLO, None)", 1.873306113462509e-06], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 4.082117303817571e-07], ["'erbe - APOS' (unit, GLO, None)", 1.933851091867314e-05]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.02035639168804654], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0004686720758420863], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.003530088743134938], ["'mixed heating grid' (megajoule, GLO, None)", -0.005842426343042837], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.005679409515593674], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.779039117109829e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.2207242682693008], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0031897032055683413], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02807748762575628]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0061746964775806976], ["'dishwasher - APOS' (unit, GLO, None)", 0.003720860427652041], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0001917064747583488], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.00014788628704522818], ["'mixed heating grid' (megajoule, GLO, None)", -0.00023960362881160344], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.0005333002226175413], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0006345843890574178], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0006792147375915227], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0007600314780167607], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.009664757404819625], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.001381290738478046], ["'erbe - APOS' (unit, GLO, None)", 0.02035639168804654]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.6175254836950608], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.0071217162131109926], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.06300216106861332], ["'mixed heating grid' (megajoule, GLO, None)", -0.16181169279372454], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.5114490638216849], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 0.001727367811749039], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 20.67260122478733], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.055959698077317495], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.317989151670058]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.138349593397508], ["'dishwasher - APOS' (unit, GLO, None)", 0.07814518226477303], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.002913079698618317], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.002639354518886241], ["'mixed heating grid' (megajoule, GLO, None)", -0.006636056066619122], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 0.01154658663095231], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.02032961066956665], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.010173308885001188], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.07069584080056991], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.09978981784301753], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.02960115026057783], ["'erbe - APOS' (unit, GLO, None)", 0.6175254836950608]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0616185452632978], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00014709202055117045], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.012906306886471177], ["'mixed heating grid' (megajoule, GLO, None)", -0.010761849874071121], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.00043951582972667004], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.393759314797545e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.2299697557631995], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0053117579835117576], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.009525747063244315]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.019824100169610715], ["'dishwasher - APOS' (unit, GLO, None)", 0.012604823616826962], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.016678649838878e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0005406849356459712], ["'mixed heating grid' (megajoule, GLO, None)", -0.00044135400793263066], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.193463816919316e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001377478526838074], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0010380120987935454], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.001718645316457017], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.001680641190585553], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0003015982534627736], ["'erbe - APOS' (unit, GLO, None)", 0.0616185452632978]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.04507704264986837], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00034491099288945775], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.009394156635567431], ["'mixed heating grid' (megajoule, GLO, None)", -0.0834167568974609], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0001772103055957634], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.5569956279435072e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.07342267753890994], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.01495420099502627], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.00302448402711349]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.014152601835121655], ["'dishwasher - APOS' (unit, GLO, None)", 0.00912859548433168], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.00014108301723211433], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0003935501472752225], ["'mixed heating grid' (megajoule, GLO, None)", -0.0034210029331610595], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.8214772538822886e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 6.454388589776473e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00047748523728992923], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0002490871618644453], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0004378712517531406], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0001433028754696351], ["'erbe - APOS' (unit, GLO, None)", 0.04507704264986837]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.002520186771648724], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.00010199919999884605], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0002891008116475817], ["'mixed heating grid' (megajoule, GLO, None)", -0.0007541874596760185], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0004784644097709115], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 6.338669434899458e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.06992676030352472], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00579179663901582], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.008941788877054671]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.0008028967753124286], ["'dishwasher - APOS' (unit, GLO, None)", 0.0003891298912455328], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 4.172193750783441e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.2111323178338703e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.0929966683750105e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 6.487750228320764e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0002691429474227231], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00010777125626252198], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0002379731312585102], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.00323654344009041], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002143244778781134], ["'erbe - APOS' (unit, GLO, None)", 0.002520186771648724]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 2.380915912118236e-07], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 4.130999175783243e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -4.8619428438353564e-08], ["'mixed heating grid' (megajoule, GLO, None)", -1.2311491795245977e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 6.387108600525631e-08], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 7.541958497425865e-10], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 9.308103962707124e-07], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 2.2704761509602888e-08], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.265724331569844e-08]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 8.553336580991553e-08], ["'dishwasher - APOS' (unit, GLO, None)", 4.9536386401580436e-08], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.6897513849019778e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.0368175627290288e-09], ["'mixed heating grid' (megajoule, GLO, None)", -5.049063414788163e-09], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.18924941135936e-09], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.932699837061497e-09], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.0403640195064935e-09], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.598949678918769e-09], ["'scalpel raw materials - APOS' (unit, GLO, None)", 8.593858632269992e-09], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.291932590012166e-09], ["'erbe - APOS' (unit, GLO, None)", 2.380915912118236e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0002512291093765949], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 6.510638647098486e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.5149225392058714e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.00018665708392572082], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 1.922531882754098e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.4879460353449904e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.00773478925961874], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 9.911430698776537e-05], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.000774038899226479]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 6.508821427214255e-05], ["'dishwasher - APOS' (unit, GLO, None)", 3.857819100154853e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 2.663123424236736e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.4725092806395549e-06], ["'mixed heating grid' (megajoule, GLO, None)", -7.654989900771577e-06], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 1.6469679482142367e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.702644862498284e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 2.072513124330579e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 2.050135064573311e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.000266204609356964], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.160488159504931e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0002512291093765949]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0004644310388547564], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.440845697531487e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.585501575462173e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004638684648155953], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.18456154561069e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.6969062642830217e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.006500645825079011], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0001898705544576482], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004064416435662686]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00014214951468321128], ["'dishwasher - APOS' (unit, GLO, None)", 8.78992260403735e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 5.893661337689009e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.596730968549263e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.902370024629155e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 4.735527296642484e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 7.066757719980194e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.0092916742412954e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.404657372263488e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.367529534569801e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.04316918774579e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0004644310388547564]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.0004758870394636983], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.6300402651945616e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.779284058447235e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.0004802828774537951], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 9.281065922324529e-05], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 1.7497917886927103e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.006649942238853029], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.00020532097617536409], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.0004353570302698395]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.00014563884212547167], ["'dishwasher - APOS' (unit, GLO, None)", 9.003223624541419e-05], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.6675462239381015e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.6779124174825153e-06], ["'mixed heating grid' (megajoule, GLO, None)", -1.969687139163377e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 4.795805808205742e-06], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 7.275641989959379e-06], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 4.372464454440832e-05], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 1.446060327293298e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 5.567948264373903e-05], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 1.093469913622527e-05], ["'erbe - APOS' (unit, GLO, None)", 0.0004758870394636983]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.003918048417844105], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.4729128887808713e-05], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0007704024799958978], ["'mixed heating grid' (megajoule, GLO, None)", -0.0008649686569297054], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0003383264811565636], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 5.521965786495712e-06], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.01797208449840475], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.0013558760734897048], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.00432142114341486]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.001301108610605142], ["'dishwasher - APOS' (unit, GLO, None)", 0.0007847780650988762], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.024829557574431e-06], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.227453205492232e-05], ["'mixed heating grid' (megajoule, GLO, None)", -3.547321212794565e-05], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.2526105731648382e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 6.301241729402576e-05], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.00024736314538371506], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 5.699170611315049e-05], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.0009870058512703483], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 3.071788484429795e-05], ["'erbe - APOS' (unit, GLO, None)", 0.003918048417844105]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 1.428822361079322e-09], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 3.576920826279976e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -2.6312107313829794e-10], ["'mixed heating grid' (megajoule, GLO, None)", -1.2925190837665657e-09], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 1.2332501794218901e-09], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.3483121371872182e-12], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.524374501667983e-08], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 4.2850493557496723e-10], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 1.130508845389557e-09]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 4.335899567203889e-10], ["'dishwasher - APOS' (unit, GLO, None)", 2.6941732428042614e-10], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 1.463110173277956e-11], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -1.1022951937242953e-11], ["'mixed heating grid' (megajoule, GLO, None)", -5.300747405185513e-11], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.681964741795398e-11], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 2.013332183772122e-11], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 6.929601496229606e-11], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 4.236526019997829e-11], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.587945404213964e-10], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.5122528073498e-11], ["'erbe - APOS' (unit, GLO, None)", 1.428822361079322e-09]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 5.805929757498248e-07], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 1.5717591275906286e-08], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.963736137126514e-08], ["'mixed heating grid' (megajoule, GLO, None)", -2.9489085224123857e-07], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 5.346996247016356e-07], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 2.0787788457808786e-09], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 1.227172175540617e-05], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 1.5691862541413314e-07], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 8.151528909747846e-07]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 1.615580184690994e-07], ["'dishwasher - APOS' (unit, GLO, None)", 9.724099468126288e-08], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 6.4291520030986935e-09], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -3.755185072756978e-09], ["'mixed heating grid' (megajoule, GLO, None)", -1.209376278820963e-08], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 2.3113298453940698e-08], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 1.894916463147862e-08], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 3.344215816335721e-08], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 3.539283200179481e-08], ["'scalpel raw materials - APOS' (unit, GLO, None)", 2.369067824771231e-07], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 2.219409709373561e-08], ["'erbe - APOS' (unit, GLO, None)", 5.805929757498248e-07]]</t>
+  </si>
+  <si>
+    <t>[["'erbe - APOS' (unit, GLO, None)", 0.01119654046325344], ["'sc1 Transport - APOS' (ton kilometer, GLO, None)", 0.001231658091622586], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -0.0020947279225630587], ["'mixed heating grid' (megajoule, GLO, None)", -0.011199611100618487], ["'sc1 Waste - APOS' (kilogram, GLO, None)", 0.0006221814363755362], ["'treatment of waste paper to pulp, wet lap, totally chlorine free bleached' (kilogram, RoW, None)", 3.6844823364961214e-05], ["'diathermy SU manufacturing - APOS' (unit, GLO, None)", 0.1259442950309327], ["'diathermy packaging - APOS' (kilogram, GLO, None)", 0.016226353540579008], ["'diathermy SU raw materials - APOS' (unit, GLO, None)", 0.02624265369001074]]</t>
+  </si>
+  <si>
+    <t>[["'autoclave - APOS' (unit, GLO, None)", 0.003603651426925919], ["'dishwasher - APOS' (unit, GLO, None)", 0.002250801274651079], ["'sc3 Transport - APOS' (ton kilometer, GLO, None)", 0.0005037996565686542], ["'mixed electricity mix' (kilowatt hour, GLO, None)", -8.775460261169234e-05], ["'mixed heating grid' (megajoule, GLO, None)", -0.000459307024757339], ["'sc3 Waste - APOS' (kilogram, GLO, None)", 5.940905165328193e-05], ["'bipolar burner raw materials - APOS' (unit, GLO, None)", 0.0001718795793229767], ["'bipolar burner packaging - APOS' (kilogram, GLO, None)", 0.0036523867388693525], ["'bipolar burner manufacturing - APOS' (unit, GLO, None)", 0.0003206258686332406], ["'scalpel raw materials - APOS' (unit, GLO, None)", 0.001699746453649668], ["'scalpel manufacturing - APOS' (unit, GLO, None)", 0.0002888119797737495], ["'erbe - APOS' (unit, GLO, None)", 0.01119654046325344]]</t>
   </si>
 </sst>
 </file>
@@ -623,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:U3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -699,64 +636,64 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
         <v>27</v>
       </c>
-      <c r="D2" t="s">
-        <v>30</v>
-      </c>
       <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" t="s">
         <v>39</v>
       </c>
-      <c r="H2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
+        <v>41</v>
+      </c>
+      <c r="L2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" t="s">
         <v>45</v>
       </c>
-      <c r="J2" t="s">
-        <v>48</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
-        <v>54</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="Q2" t="s">
+        <v>53</v>
+      </c>
+      <c r="R2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S2" t="s">
         <v>57</v>
       </c>
-      <c r="N2" t="s">
-        <v>60</v>
-      </c>
-      <c r="O2" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>69</v>
-      </c>
-      <c r="R2" t="s">
-        <v>72</v>
-      </c>
-      <c r="S2" t="s">
-        <v>75</v>
-      </c>
       <c r="T2" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="U2" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -764,129 +701,64 @@
         <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>28</v>
       </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
       <c r="E3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
         <v>34</v>
       </c>
-      <c r="F3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" t="s">
         <v>40</v>
       </c>
-      <c r="H3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
         <v>46</v>
       </c>
-      <c r="J3" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" t="s">
+      <c r="N3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" t="s">
+        <v>50</v>
+      </c>
+      <c r="P3" t="s">
         <v>52</v>
       </c>
-      <c r="L3" t="s">
-        <v>55</v>
-      </c>
-      <c r="M3" t="s">
+      <c r="Q3" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" t="s">
+        <v>56</v>
+      </c>
+      <c r="S3" t="s">
         <v>58</v>
       </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>70</v>
-      </c>
-      <c r="R3" t="s">
-        <v>73</v>
-      </c>
-      <c r="S3" t="s">
-        <v>76</v>
-      </c>
       <c r="T3" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="U3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" t="s">
-        <v>50</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" t="s">
-        <v>56</v>
-      </c>
-      <c r="M4" t="s">
-        <v>59</v>
-      </c>
-      <c r="N4" t="s">
         <v>62</v>
-      </c>
-      <c r="O4" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>71</v>
-      </c>
-      <c r="R4" t="s">
-        <v>74</v>
-      </c>
-      <c r="S4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T4" t="s">
-        <v>80</v>
-      </c>
-      <c r="U4" t="s">
-        <v>83</v>
       </c>
     </row>
   </sheetData>
